--- a/Data/EC/NIT-9001088909.xlsx
+++ b/Data/EC/NIT-9001088909.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D58EC7-7770-4C80-9C85-77C56F1CA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6C1396-7C8F-4F94-B3EA-565D4E88969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BCF49D0C-01E3-4724-955B-AF6F4419AFAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{585CAF1E-EA48-48A3-AC36-29A721C1B7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,57 @@
     <t>JUAN MIGUEL ESPINOSA MARTINEZ</t>
   </si>
   <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -80,181 +131,130 @@
     <t>DANIEL FERNANDO OROZCO OROZCO</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
   </si>
   <si>
     <t>45508920</t>
   </si>
   <si>
     <t>MONICA MARIA SERRANO SANJUAN</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -668,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423BA809-2D07-A3A0-02C5-2C9F7682FE3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE66800-5E68-DF7F-C892-D74356AFFA9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC88540-BEA5-46AD-A7A5-CB7EC46F71B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59264225-737A-4F36-B281-F98631D46D37}">
   <dimension ref="B2:J151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1211,16 +1211,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>28000</v>
@@ -1257,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1303,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>28000</v>
@@ -1349,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1372,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G24" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>28000</v>
@@ -1418,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G26" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1441,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1464,16 +1464,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G29" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>28000</v>
@@ -1533,16 +1533,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1556,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>29288</v>
+        <v>28000</v>
       </c>
       <c r="G32" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1585,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>28000</v>
@@ -1602,16 +1602,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>28000</v>
+        <v>27083</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1625,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1648,19 +1648,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1671,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1694,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1717,16 +1717,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1740,16 +1740,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1763,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1786,16 +1786,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1809,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1832,16 +1832,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1855,16 +1855,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1878,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1901,16 +1901,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1924,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1947,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1970,16 +1970,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1993,16 +1993,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2016,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2039,16 +2039,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2062,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2085,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2108,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2131,16 +2131,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2154,16 +2154,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2200,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2223,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2246,16 +2246,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2269,16 +2269,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2292,16 +2292,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2338,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>29288</v>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G67" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2384,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G68" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2407,13 +2407,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>29288</v>
@@ -2430,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G70" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2453,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>29288</v>
@@ -2476,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>29288</v>
@@ -2499,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G73" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2522,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F74" s="18">
         <v>29288</v>
@@ -2545,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F75" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G75" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2568,19 +2568,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F76" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G76" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2591,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F77" s="18">
         <v>29288</v>
@@ -2614,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F78" s="18">
         <v>29288</v>
@@ -2637,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F79" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G79" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2660,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F80" s="18">
         <v>29288</v>
@@ -2683,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F81" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G81" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2706,16 +2706,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2729,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F83" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G83" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2752,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F84" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G84" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2775,16 +2775,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2798,16 +2798,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2821,19 +2821,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F87" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G87" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2844,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F88" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G88" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2867,16 +2867,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2890,16 +2890,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2913,19 +2913,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F91" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G91" s="18">
-        <v>732200</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2936,19 +2936,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29058</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2959,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F93" s="18">
         <v>33528</v>
       </c>
       <c r="G93" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2982,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F94" s="18">
         <v>33528</v>
       </c>
       <c r="G94" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3005,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3028,19 +3028,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F96" s="18">
         <v>33528</v>
       </c>
       <c r="G96" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3051,19 +3051,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3074,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
         <v>33528</v>
       </c>
       <c r="G98" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3097,19 +3097,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3120,19 +3120,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F100" s="18">
         <v>33528</v>
       </c>
       <c r="G100" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3143,19 +3143,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3166,19 +3166,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3189,19 +3189,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F103" s="18">
         <v>33528</v>
       </c>
       <c r="G103" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3212,19 +3212,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F104" s="18">
         <v>33528</v>
       </c>
       <c r="G104" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3235,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3258,19 +3258,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3281,19 +3281,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
         <v>33528</v>
       </c>
       <c r="G107" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3304,19 +3304,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
         <v>33528</v>
       </c>
       <c r="G108" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3327,19 +3327,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3350,19 +3350,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="18">
         <v>33528</v>
       </c>
       <c r="G110" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3373,19 +3373,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3396,19 +3396,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F112" s="18">
         <v>33528</v>
       </c>
       <c r="G112" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3419,19 +3419,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3442,19 +3442,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3465,19 +3465,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F115" s="18">
         <v>33528</v>
       </c>
       <c r="G115" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3488,19 +3488,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F116" s="18">
         <v>33528</v>
       </c>
       <c r="G116" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3511,19 +3511,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3534,19 +3534,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F118" s="18">
         <v>33528</v>
       </c>
       <c r="G118" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3557,19 +3557,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3580,19 +3580,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F120" s="18">
         <v>33528</v>
       </c>
       <c r="G120" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3603,19 +3603,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3626,10 +3626,10 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>61</v>
@@ -3638,7 +3638,7 @@
         <v>33528</v>
       </c>
       <c r="G122" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3649,19 +3649,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3672,19 +3672,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F124" s="18">
         <v>33528</v>
       </c>
       <c r="G124" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3695,19 +3695,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3718,19 +3718,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F126" s="18">
         <v>33528</v>
       </c>
       <c r="G126" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3741,19 +3741,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3764,19 +3764,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3787,19 +3787,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F129" s="18">
         <v>33528</v>
       </c>
       <c r="G129" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3810,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3833,19 +3833,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F131" s="18">
         <v>33528</v>
       </c>
       <c r="G131" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3856,19 +3856,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3879,19 +3879,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F133" s="18">
         <v>33528</v>
       </c>
       <c r="G133" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3902,19 +3902,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F134" s="18">
         <v>33528</v>
       </c>
       <c r="G134" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3925,19 +3925,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3948,19 +3948,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3971,19 +3971,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F137" s="18">
         <v>33528</v>
       </c>
       <c r="G137" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3994,19 +3994,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F138" s="18">
         <v>33528</v>
       </c>
       <c r="G138" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4017,19 +4017,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4040,19 +4040,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F140" s="18">
         <v>33528</v>
       </c>
       <c r="G140" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4063,19 +4063,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4086,19 +4086,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F142" s="18">
-        <v>33528</v>
+        <v>29288</v>
       </c>
       <c r="G142" s="18">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4109,19 +4109,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4132,19 +4132,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F144" s="18">
-        <v>27083</v>
+        <v>29288</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4155,19 +4155,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F145" s="24">
-        <v>29058</v>
+        <v>29288</v>
       </c>
       <c r="G145" s="24">
-        <v>732200</v>
+        <v>838200</v>
       </c>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>

--- a/Data/EC/NIT-9001088909.xlsx
+++ b/Data/EC/NIT-9001088909.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6C1396-7C8F-4F94-B3EA-565D4E88969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C1A49C-3170-42E2-A9A2-26281CACD621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{585CAF1E-EA48-48A3-AC36-29A721C1B7CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FBFDDB27-EF71-4D91-9B3E-92CB9651843F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,190 +71,190 @@
     <t>JUAN MIGUEL ESPINOSA MARTINEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047422037</t>
+  </si>
+  <si>
+    <t>DANIEL FERNANDO OROZCO OROZCO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>45508920</t>
+  </si>
+  <si>
+    <t>MONICA MARIA SERRANO SANJUAN</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1712</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047422037</t>
-  </si>
-  <si>
-    <t>DANIEL FERNANDO OROZCO OROZCO</t>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
   </si>
   <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>45508920</t>
-  </si>
-  <si>
-    <t>MONICA MARIA SERRANO SANJUAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,7 +353,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,9 +368,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -568,23 +568,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +612,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE66800-5E68-DF7F-C892-D74356AFFA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4D4685-B07B-5FF6-DAC1-DD4A1A534821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59264225-737A-4F36-B281-F98631D46D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996F50B-6337-4EF7-BAE6-15D27E38D6E9}">
   <dimension ref="B2:J151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1211,16 +1211,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>28000</v>
@@ -1257,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1303,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>28000</v>
@@ -1349,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1372,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>28000</v>
@@ -1418,16 +1418,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1441,19 +1441,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1470,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>28000</v>
@@ -1487,16 +1487,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1510,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1539,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>28000</v>
@@ -1556,16 +1556,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1579,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>28000</v>
+        <v>29288</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1602,16 +1602,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>27083</v>
+        <v>28000</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1625,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1648,19 +1648,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1671,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1694,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1717,16 +1717,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1740,16 +1740,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1763,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1786,16 +1786,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1809,16 +1809,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1832,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1855,16 +1855,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1878,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1901,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1924,16 +1924,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1947,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1970,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1993,16 +1993,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2016,16 +2016,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2039,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2062,16 +2062,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2085,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2108,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2131,16 +2131,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2154,16 +2154,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2200,16 +2200,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2223,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2246,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2269,16 +2269,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2292,16 +2292,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29288</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>33528</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2338,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
         <v>29288</v>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2384,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
         <v>29288</v>
@@ -2407,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2430,13 +2430,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F70" s="18">
         <v>29288</v>
@@ -2453,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2476,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F72" s="18">
         <v>29288</v>
@@ -2499,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F73" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2522,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F74" s="18">
         <v>29288</v>
@@ -2545,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F75" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2568,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F76" s="18">
         <v>29288</v>
@@ -2591,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F77" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2614,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
         <v>29288</v>
@@ -2637,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2660,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
         <v>29288</v>
@@ -2683,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2706,16 +2706,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F82" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2729,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2752,16 +2752,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F84" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2775,19 +2775,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F85" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2798,16 +2798,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F86" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2821,19 +2821,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F87" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2844,16 +2844,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F88" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2867,19 +2867,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F89" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2890,16 +2890,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F90" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2913,19 +2913,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F91" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>838200</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2936,19 +2936,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F92" s="18">
-        <v>29058</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2959,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F93" s="18">
         <v>33528</v>
@@ -2982,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F94" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3005,13 +3005,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F95" s="18">
         <v>33528</v>
@@ -3028,19 +3028,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F96" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3051,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F97" s="18">
         <v>33528</v>
@@ -3074,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F98" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3097,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F99" s="18">
         <v>33528</v>
@@ -3120,19 +3120,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F100" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3143,13 +3143,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F101" s="18">
         <v>33528</v>
@@ -3166,19 +3166,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3189,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F103" s="18">
         <v>33528</v>
@@ -3212,19 +3212,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F104" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3235,13 +3235,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F105" s="18">
         <v>33528</v>
@@ -3258,19 +3258,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F106" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3281,13 +3281,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F107" s="18">
         <v>33528</v>
@@ -3304,19 +3304,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F108" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3327,13 +3327,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F109" s="18">
         <v>33528</v>
@@ -3350,19 +3350,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F110" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3373,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F111" s="18">
         <v>33528</v>
@@ -3396,19 +3396,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F112" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3419,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F113" s="18">
         <v>33528</v>
@@ -3442,19 +3442,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F114" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3465,13 +3465,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F115" s="18">
         <v>33528</v>
@@ -3488,19 +3488,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F116" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3511,13 +3511,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F117" s="18">
         <v>33528</v>
@@ -3534,19 +3534,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F118" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3557,13 +3557,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F119" s="18">
         <v>33528</v>
@@ -3580,19 +3580,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F120" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3603,10 +3603,10 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>60</v>
@@ -3626,19 +3626,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F122" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3649,13 +3649,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F123" s="18">
         <v>33528</v>
@@ -3672,19 +3672,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F124" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3695,13 +3695,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F125" s="18">
         <v>33528</v>
@@ -3718,19 +3718,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F126" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3741,13 +3741,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F127" s="18">
         <v>33528</v>
@@ -3764,19 +3764,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F128" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3787,13 +3787,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F129" s="18">
         <v>33528</v>
@@ -3810,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F130" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3833,13 +3833,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F131" s="18">
         <v>33528</v>
@@ -3856,19 +3856,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F132" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3879,13 +3879,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F133" s="18">
         <v>33528</v>
@@ -3902,19 +3902,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F134" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3925,13 +3925,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F135" s="18">
         <v>33528</v>
@@ -3948,19 +3948,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F136" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3971,13 +3971,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F137" s="18">
         <v>33528</v>
@@ -3994,19 +3994,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F138" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4017,13 +4017,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F139" s="18">
         <v>33528</v>
@@ -4040,19 +4040,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F140" s="18">
-        <v>33528</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4063,16 +4063,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F141" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G141" s="18">
         <v>838200</v>
@@ -4086,19 +4086,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D142" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F142" s="18">
-        <v>29288</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4109,16 +4109,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F143" s="18">
-        <v>29288</v>
+        <v>33528</v>
       </c>
       <c r="G143" s="18">
         <v>838200</v>
@@ -4132,19 +4132,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F144" s="18">
-        <v>29288</v>
+        <v>27083</v>
       </c>
       <c r="G144" s="18">
-        <v>838200</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4155,16 +4155,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D145" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E145" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F145" s="24">
-        <v>29288</v>
+        <v>29058</v>
       </c>
       <c r="G145" s="24">
         <v>838200</v>
